--- a/数据整理/stocks/A股/创业板/301177-迪阿股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301177-迪阿股份.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -999,7 +1000,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1010,17 +1011,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1030,13 +1051,557 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4537</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014653</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0850</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014863</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014654</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信卓越成长一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>81.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>750005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002035</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>安信平稳增长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>57.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.55</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/301177-迪阿股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301177-迪阿股份.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,545 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001070</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信信息产业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>81.80</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7010</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008962</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2873</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000308</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信创新中国混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.50</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2022</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010994</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时创新经济混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1852</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002378</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信弘利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>89.57</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002281</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>建信裕利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.94</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0385</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>970020</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>信达价值精选一年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>56.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0360</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>970021</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>信达价值精选一年持有期灵活配置混合B</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>56.02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008963</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>84.82</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.62</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0172</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010995</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>博时创新经济混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.89</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0167</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>519951</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008071</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合E</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007863</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>长信利泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>25.18</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1548,64 +1068,544 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.14</v>
+          <t>001070</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信信息产业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.55</v>
+          <t>008962</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2873</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000308</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信创新中国混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2022</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002378</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信弘利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002281</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信裕利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>970020</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>970021</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达价值精选一年持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>56.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008963</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519951</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008071</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007863</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长信利泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>25.18</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/301177-迪阿股份.xlsx
+++ b/数据整理/stocks/A股/创业板/301177-迪阿股份.xlsx
@@ -7,8 +7,9 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,14 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>1.14</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -499,13 +500,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>13</v>
       </c>
       <c r="D3" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.55</v>
       </c>
     </row>
@@ -515,6 +532,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001118</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝事件驱动混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2526</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012421</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519767</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009619</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>015394</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>516560</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝养老ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012422</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏优加生活混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009620</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时女性消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>72.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1062,7 +1591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
